--- a/_debug/samples/sample_sheet_valid_mixed.xlsx
+++ b/_debug/samples/sample_sheet_valid_mixed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisc\WebProjects\adit\_samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaisc\Documents\Projects\adit\_debug\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4275F-0009-4835-ACD7-4F5B2242F35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FA3456-1B26-4DFD-B79B-76023919140C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="277" windowWidth="20235" windowHeight="12803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3105" yWindow="2138" windowWidth="15390" windowHeight="9532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
-    <t>RowID</t>
-  </si>
-  <si>
     <t>PatientID</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>no name/birthdate, no pseudonym</t>
+  </si>
+  <si>
+    <t>RequestID</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -482,28 +482,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -511,10 +511,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>8789</v>
@@ -523,13 +523,13 @@
         <v>43950</v>
       </c>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>19803</v>
@@ -549,10 +549,10 @@
         <v>43719</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>24363</v>
@@ -569,13 +569,13 @@
         <v>43950</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>11531</v>
@@ -592,10 +592,10 @@
         <v>43687</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -603,20 +603,20 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>43701</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -624,17 +624,17 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>43879</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -642,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>30211</v>
@@ -654,13 +654,13 @@
         <v>43473</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -668,10 +668,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>30211</v>
@@ -680,13 +680,13 @@
         <v>43920</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -694,10 +694,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>30211</v>
@@ -706,13 +706,13 @@
         <v>43714</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
